--- a/Details.xlsx
+++ b/Details.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5154" documentId="7_{7F2EE577-6552-4DB7-94F7-C16FD42A681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2CDB9C9-A29B-435E-834B-23E1D4EBAE28}"/>
+  <xr:revisionPtr revIDLastSave="5272" documentId="7_{7F2EE577-6552-4DB7-94F7-C16FD42A681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80523B23-6026-461F-AF21-C2550F2293E5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Length of measurements" sheetId="1" r:id="rId1"/>
@@ -962,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1157,6 +1157,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3750,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934EF607-4C51-4F4D-B970-F251D79F64F8}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3762,6 +3764,7 @@
     <col min="8" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3812,47 +3815,47 @@
         <v>57</v>
       </c>
       <c r="B2" s="23">
-        <f>AVERAGE(B11, B19, B27,B35,B43,H11,H19,H27,H35,H43)</f>
-        <v>0.99785999999999997</v>
+        <f>ROUND(AVERAGE(B11, B19, B27,B35,B43,H11,H19,H27,H35,H43),4)</f>
+        <v>0.99790000000000001</v>
       </c>
       <c r="C2" s="23">
-        <f>AVERAGE(C11, C19, C27,C35,C43,I11,I19,I27,I35,I43)</f>
-        <v>0.99758999999999998</v>
+        <f>ROUND(AVERAGE(C11, C19, C27,C35,C43,I11,I19,I27,I35,I43),4)</f>
+        <v>0.99760000000000004</v>
       </c>
       <c r="D2" s="23">
-        <f>AVERAGE(D11, D19, D27,D35,D43,J11,J19,J27,J35,J43)</f>
-        <v>0.99864000000000019</v>
+        <f>ROUND(AVERAGE(D11, D19, D27,D35,D43,J11,J19,J27,J35,J43),4)</f>
+        <v>0.99860000000000004</v>
       </c>
       <c r="E2" s="37">
-        <f>AVERAGE(E11, E19, E27,E35,E43,K11,K19,K27,K35,K43)</f>
+        <f>ROUND(AVERAGE(E11, E19, E27,E35,E43,K11,K19,K27,K35,K43),4)</f>
         <v>0.99570000000000003</v>
       </c>
       <c r="F2">
         <f>ROUND(AVERAGE(B2:E2),4)</f>
-        <v>0.99739999999999995</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>57</v>
       </c>
       <c r="I2">
-        <f>STDEV(B11, B19, B27,B35,B43,I11,I19,I27,I35,I43)</f>
-        <v>3.3721737137276408E-3</v>
+        <f>ROUND(STDEV(B11, B19, B27,B35,B43,I11,I19,I27,I35,I43),4)</f>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="J2">
-        <f>STDEV(C11, C19, C27,C35,C43,J11,J19,J27,J35,J43)</f>
-        <v>1.7010127702179086E-3</v>
+        <f>ROUND(STDEV(C11, C19, C27,C35,C43,J11,J19,J27,J35,J43),4)</f>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="K2">
-        <f>STDEV(D11, D19, D27,D35,D43,K11,K19,K27,K35,K43)</f>
-        <v>5.3493094050644811E-3</v>
+        <f>ROUND(STDEV(D11, D19, D27,D35,D43,K11,K19,K27,K35,K43),4)</f>
+        <v>5.3E-3</v>
       </c>
       <c r="L2" s="16">
-        <f>STDEV(E11, E19, E27,E35,E43,L11,L19,L27,L35,L43)</f>
-        <v>2.0034925061557435E-2</v>
+        <f>ROUND(STDEV(E11, E19, E27,E35,E43,L11,L19,L27,L35,L43),4)</f>
+        <v>0.02</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(I2:L2)</f>
-        <v>7.614355237641866E-3</v>
+        <f>ROUND(AVERAGE(I2:L2),4)</f>
+        <v>7.6E-3</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="42" t="s">
@@ -3868,20 +3871,20 @@
         <v>66</v>
       </c>
       <c r="B3" s="23">
-        <f>AVERAGE(B12, B20, B28,B36,B44,H12,H20,H28,H36,H44)</f>
-        <v>0.99795999999999996</v>
+        <f>ROUND(AVERAGE(B12, B20, B28,B36,B44,H12,H20,H28,H36,H44),4)</f>
+        <v>0.998</v>
       </c>
       <c r="C3" s="23">
-        <f>AVERAGE(C12, C20, C28,C36,C44,I12,I20,I28,I36,I44)</f>
-        <v>0.99892999999999998</v>
+        <f>ROUND(AVERAGE(C12, C20, C28,C36,C44,I12,I20,I28,I36,I44),4)</f>
+        <v>0.99890000000000001</v>
       </c>
       <c r="D3" s="23">
-        <f>AVERAGE(D12, D20, D28,D36,D44,J12,J20,J28,J36,J44)</f>
-        <v>0.99702999999999997</v>
+        <f>ROUND(AVERAGE(D12, D20, D28,D36,D44,J12,J20,J28,J36,J44),4)</f>
+        <v>0.997</v>
       </c>
       <c r="E3" s="37">
-        <f>AVERAGE(E12, E20, E28,E36,E44,K12,K20,K28,K36,K44)</f>
-        <v>0.99348999999999987</v>
+        <f>ROUND(AVERAGE(E12, E20, E28,E36,E44,K12,K20,K28,K36,K44),4)</f>
+        <v>0.99350000000000005</v>
       </c>
       <c r="F3">
         <f>ROUND(AVERAGE(B3:E3),4)</f>
@@ -3891,24 +3894,24 @@
         <v>66</v>
       </c>
       <c r="I3">
-        <f>STDEV(B12, B20, B28,B36,B44,I12,I20,I28,I36,I44)</f>
-        <v>1.566453886259592E-3</v>
+        <f>ROUND(STDEV(B12, B20, B28,B36,B44,I12,I20,I28,I36,I44),4)</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J3">
-        <f>STDEV(C12, C20, C28,C36,C44,J12,J20,J28,J36,J44)</f>
-        <v>6.9183813135732875E-3</v>
+        <f>ROUND(STDEV(C12, C20, C28,C36,C44,J12,J20,J28,J36,J44),4)</f>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K3">
-        <f>STDEV(D12, D20, D28,D36,D44,K12,K20,K28,K36,K44)</f>
-        <v>1.3243681931816062E-2</v>
+        <f>ROUND(STDEV(D12, D20, D28,D36,D44,K12,K20,K28,K36,K44),4)</f>
+        <v>1.32E-2</v>
       </c>
       <c r="L3" s="16">
-        <f>STDEV(E12, E20, E28,E36,E44,L12,L20,L28,L36,L44)</f>
-        <v>2.1784255272507661E-2</v>
+        <f>ROUND(STDEV(E12, E20, E28,E36,E44,L12,L20,L28,L36,L44),4)</f>
+        <v>2.18E-2</v>
       </c>
       <c r="M3">
-        <f>AVERAGE(I3:L3)</f>
-        <v>1.0878193101039151E-2</v>
+        <f>ROUND(AVERAGE(I3:L3),4)</f>
+        <v>1.09E-2</v>
       </c>
       <c r="N3" s="5"/>
     </row>
@@ -3917,20 +3920,20 @@
         <v>76</v>
       </c>
       <c r="B4" s="23">
-        <f>AVERAGE(B13, B21, B29,B37,B45,H13,H21,H29,H37,H45)</f>
-        <v>0.98963999999999996</v>
+        <f>ROUND(AVERAGE(B13, B21, B29,B37,B45,H13,H21,H29,H37,H45),4)</f>
+        <v>0.98960000000000004</v>
       </c>
       <c r="C4" s="23">
-        <f>AVERAGE(C13, C21, C29,C37,C45,I13,I21,I29,I37,I45)</f>
-        <v>0.99855999999999978</v>
+        <f>ROUND(AVERAGE(C13, C21, C29,C37,C45,I13,I21,I29,I37,I45),4)</f>
+        <v>0.99860000000000004</v>
       </c>
       <c r="D4" s="23">
-        <f>AVERAGE(D13, D21, D29,D37,D45,J13,J21,J29,J37,J45)</f>
-        <v>0.99973000000000012</v>
+        <f>ROUND(AVERAGE(D13, D21, D29,D37,D45,J13,J21,J29,J37,J45),4)</f>
+        <v>0.99970000000000003</v>
       </c>
       <c r="E4" s="37">
-        <f>AVERAGE(E13, E21, E29,E37,E45,K13,K21,K29,K37,K45)</f>
-        <v>0.99941999999999998</v>
+        <f>ROUND(AVERAGE(E13, E21, E29,E37,E45,K13,K21,K29,K37,K45),4)</f>
+        <v>0.99939999999999996</v>
       </c>
       <c r="F4">
         <f>ROUND(AVERAGE(B4:E4),4)</f>
@@ -3940,24 +3943,24 @@
         <v>76</v>
       </c>
       <c r="I4">
-        <f>STDEV(B13, B21, B29,B37,B45,I13,I21,I29,I37,I45)</f>
-        <v>1.4944921099379107E-2</v>
+        <f>ROUND(STDEV(B13, B21, B29,B37,B45,I13,I21,I29,I37,I45),4)</f>
+        <v>1.49E-2</v>
       </c>
       <c r="J4">
-        <f>STDEV(C13, C21, C29,C37,C45,J13,J21,J29,J37,J45)</f>
-        <v>2.1280142021247151E-3</v>
+        <f>ROUND(STDEV(C13, C21, C29,C37,C45,J13,J21,J29,J37,J45),4)</f>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="K4">
-        <f>STDEV(D13, D21, D29,D37,D45,K13,K21,K29,K37,K45)</f>
-        <v>5.1865209919558825E-4</v>
+        <f>ROUND(STDEV(D13, D21, D29,D37,D45,K13,K21,K29,K37,K45),4)</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="L4" s="16">
-        <f>STDEV(E13, E21, E29,E37,E45,L13,L21,L29,L37,L45)</f>
-        <v>1.4393285471589379E-3</v>
+        <f>ROUND(STDEV(E13, E21, E29,E37,E45,L13,L21,L29,L37,L45),4)</f>
+        <v>1.4E-3</v>
       </c>
       <c r="M4">
-        <f>AVERAGE(I4:L4)</f>
-        <v>4.7577289869645866E-3</v>
+        <f>ROUND(AVERAGE(I4:L4),4)</f>
+        <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3965,19 +3968,19 @@
         <v>81</v>
       </c>
       <c r="B5" s="23">
-        <f>AVERAGE(B14, B22, B30,B38,B46,H14,H22,H30,H38,H46)</f>
-        <v>0.97450000000000014</v>
+        <f>ROUND(AVERAGE(B14, B22, B30,B38,B46,H14,H22,H30,H38,H46),4)</f>
+        <v>0.97450000000000003</v>
       </c>
       <c r="C5" s="23">
-        <f>AVERAGE(C14, C22, C30,C38,C46,I14,I22,I30,I38,I46)</f>
-        <v>0.9987999999999998</v>
+        <f>ROUND(AVERAGE(C14, C22, C30,C38,C46,I14,I22,I30,I38,I46),4)</f>
+        <v>0.99880000000000002</v>
       </c>
       <c r="D5" s="23">
-        <f>AVERAGE(D14, D22, D30,D38,D46,J14,J22,J30,J38,J46)</f>
-        <v>0.99964000000000008</v>
+        <f>ROUND(AVERAGE(D14, D22, D30,D38,D46,J14,J22,J30,J38,J46),4)</f>
+        <v>0.99960000000000004</v>
       </c>
       <c r="E5" s="37">
-        <f>AVERAGE(E14, E22, E30,E38,E46,K14,K22,K30,K38,K46)</f>
+        <f>ROUND(AVERAGE(E14, E22, E30,E38,E46,K14,K22,K30,K38,K46),4)</f>
         <v>0.99939999999999996</v>
       </c>
       <c r="F5">
@@ -3988,24 +3991,24 @@
         <v>81</v>
       </c>
       <c r="I5">
-        <f>STDEV(B14, B22, B30,B38,B46,I14,I22,I30,I38,I46)</f>
-        <v>3.8841960415108921E-2</v>
+        <f>ROUND(STDEV(B14, B22, B30,B38,B46,I14,I22,I30,I38,I46),4)</f>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="J5">
-        <f>STDEV(C14, C22, C30,C38,C46,J14,J22,J30,J38,J46)</f>
-        <v>6.5523532668296323E-4</v>
+        <f>ROUND(STDEV(C14, C22, C30,C38,C46,J14,J22,J30,J38,J46),4)</f>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="K5">
-        <f>STDEV(D14, D22, D30,D38,D46,K14,K22,K30,K38,K46)</f>
-        <v>7.530677998103119E-4</v>
+        <f>ROUND(STDEV(D14, D22, D30,D38,D46,K14,K22,K30,K38,K46),4)</f>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L5" s="16">
-        <f>STDEV(E14, E22, E30,E38,E46,L14,L22,L30,L38,L46)</f>
-        <v>1.8098802907006474E-3</v>
+        <f>ROUND(STDEV(E14, E22, E30,E38,E46,L14,L22,L30,L38,L46),4)</f>
+        <v>1.8E-3</v>
       </c>
       <c r="M5">
-        <f>AVERAGE(I5:L5)</f>
-        <v>1.0515035958075711E-2</v>
+        <f>ROUND(AVERAGE(I5:L5),4)</f>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4013,20 +4016,20 @@
         <v>86</v>
       </c>
       <c r="B6" s="23">
-        <f>AVERAGE(B15, B23, B31,B39,B47,H15,H23,H31,H39,H47)</f>
-        <v>0.99874000000000007</v>
+        <f>ROUND(AVERAGE(B15, B23, B31,B39,B47,H15,H23,H31,H39,H47),4)</f>
+        <v>0.99870000000000003</v>
       </c>
       <c r="C6" s="23">
-        <f>AVERAGE(C15, C23, C31,C39,C47,I15,I23,I31,I39,I47)</f>
-        <v>0.99878</v>
+        <f>ROUND(AVERAGE(C15, C23, C31,C39,C47,I15,I23,I31,I39,I47),4)</f>
+        <v>0.99880000000000002</v>
       </c>
       <c r="D6" s="23">
-        <f>AVERAGE(D15, D23, D31,D39,D47,J15,J23,J31,J39,J47)</f>
-        <v>0.99900999999999995</v>
+        <f>ROUND(AVERAGE(D15, D23, D31,D39,D47,J15,J23,J31,J39,J47),4)</f>
+        <v>0.999</v>
       </c>
       <c r="E6" s="37">
-        <f>AVERAGE(E15, E23, E31,E39,E47,K15,K23,K31,K39,K47)</f>
-        <v>0.99740000000000006</v>
+        <f>ROUND(AVERAGE(E15, E23, E31,E39,E47,K15,K23,K31,K39,K47),4)</f>
+        <v>0.99739999999999995</v>
       </c>
       <c r="F6">
         <f>ROUND(AVERAGE(B6:E6),4)</f>
@@ -4036,24 +4039,24 @@
         <v>86</v>
       </c>
       <c r="I6">
-        <f>STDEV(B15, B23, B31,B39,B47,I15,I23,I31,I39,I47)</f>
-        <v>1.3231276078544722E-3</v>
+        <f>ROUND(STDEV(B15, B23, B31,B39,B47,I15,I23,I31,I39,I47),4)</f>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J6">
-        <f>STDEV(C15, C23, C31,C39,C47,J15,J23,J31,J39,J47)</f>
-        <v>4.5570458267024384E-4</v>
+        <f>ROUND(STDEV(C15, C23, C31,C39,C47,J15,J23,J31,J39,J47),4)</f>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6">
-        <f>STDEV(D15, D23, D31,D39,D47,K15,K23,K31,K39,K47)</f>
-        <v>4.0242183506034443E-3</v>
+        <f>ROUND(STDEV(D15, D23, D31,D39,D47,K15,K23,K31,K39,K47),4)</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L6" s="16">
-        <f>STDEV(E15, E23, E31,E39,E47,L15,L23,L31,L39,L47)</f>
-        <v>3.2260915465415411E-3</v>
+        <f>ROUND(STDEV(E15, E23, E31,E39,E47,L15,L23,L31,L39,L47),4)</f>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="M6">
-        <f>AVERAGE(I6:L6)</f>
-        <v>2.2572855219174254E-3</v>
+        <f>ROUND(AVERAGE(I6:L6),4)</f>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4061,20 +4064,20 @@
         <v>90</v>
       </c>
       <c r="B7" s="38">
-        <f>AVERAGE(B16, B24, B32,B40,B48,H16,H24,H32,H40,H48)</f>
-        <v>0.99849999999999994</v>
+        <f>ROUND(AVERAGE(B16, B24, B32,B40,B48,H16,H24,H32,H40,H48),4)</f>
+        <v>0.99850000000000005</v>
       </c>
       <c r="C7" s="38">
-        <f>AVERAGE(C16, C24, C32,C40,C48,I16,I24,I32,I40,I48)</f>
-        <v>0.9970699999999999</v>
+        <f>ROUND(AVERAGE(C16, C24, C32,C40,C48,I16,I24,I32,I40,I48),4)</f>
+        <v>0.99709999999999999</v>
       </c>
       <c r="D7" s="38">
-        <f>AVERAGE(D16, D24, D32,D40,D48,J16,J24,J32,J40,J48)</f>
-        <v>0.99953000000000003</v>
+        <f>ROUND(AVERAGE(D16, D24, D32,D40,D48,J16,J24,J32,J40,J48),4)</f>
+        <v>0.99950000000000006</v>
       </c>
       <c r="E7" s="39">
-        <f>AVERAGE(E16, E24, E32,E40,E48,K16,K24,K32,K40,K48)</f>
-        <v>0.99921999999999989</v>
+        <f>ROUND(AVERAGE(E16, E24, E32,E40,E48,K16,K24,K32,K40,K48),4)</f>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F7" s="4">
         <f>ROUND(AVERAGE(B7:E7),4)</f>
@@ -4084,24 +4087,24 @@
         <v>90</v>
       </c>
       <c r="I7" s="4">
-        <f>STDEV(B16, B24, B32,B40,B48,I16,I24,I32,I40,I48)</f>
-        <v>3.2703380729079429E-3</v>
+        <f>ROUND(STDEV(B16, B24, B32,B40,B48,I16,I24,I32,I40,I48),4)</f>
+        <v>3.3E-3</v>
       </c>
       <c r="J7" s="4">
-        <f>STDEV(C16, C24, C32,C40,C48,J16,J24,J32,J40,J48)</f>
-        <v>1.8055777776410386E-3</v>
+        <f>ROUND(STDEV(C16, C24, C32,C40,C48,J16,J24,J32,J40,J48),4)</f>
+        <v>1.8E-3</v>
       </c>
       <c r="K7" s="4">
-        <f>STDEV(D16, D24, D32,D40,D48,K16,K24,K32,K40,K48)</f>
-        <v>1.0317191693694869E-3</v>
+        <f>ROUND(STDEV(D16, D24, D32,D40,D48,K16,K24,K32,K40,K48),4)</f>
+        <v>1E-3</v>
       </c>
       <c r="L7" s="26">
-        <f>STDEV(E16, E24, E32,E40,E48,L16,L24,L32,L40,L48)</f>
-        <v>9.5945586430827752E-4</v>
+        <f>ROUND(STDEV(E16, E24, E32,E40,E48,L16,L24,L32,L40,L48),4)</f>
+        <v>1E-3</v>
       </c>
       <c r="M7" s="4">
-        <f>AVERAGE(I7:L7)</f>
-        <v>1.7667727210566864E-3</v>
+        <f>ROUND(AVERAGE(I7:L7),4)</f>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4124,24 +4127,24 @@
       </c>
       <c r="H8" s="16"/>
       <c r="I8">
-        <f>AVERAGE(I2:I7)</f>
-        <v>1.0553162465872947E-2</v>
+        <f>ROUND(AVERAGE(I2:I7),4)</f>
+        <v>1.06E-2</v>
       </c>
       <c r="J8">
-        <f>AVERAGE(J2:J7)</f>
-        <v>2.2773209954850258E-3</v>
+        <f>ROUND(AVERAGE(J2:J7),4)</f>
+        <v>2.3E-3</v>
       </c>
       <c r="K8">
-        <f>AVERAGE(K2:K7)</f>
-        <v>4.1534414593098956E-3</v>
+        <f>ROUND(AVERAGE(K2:K7),4)</f>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="L8" s="16">
-        <f>AVERAGE(L2:L7)</f>
-        <v>8.2089894304624173E-3</v>
+        <f>ROUND(AVERAGE(L2:L7),4)</f>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="E9" s="16"/>
+      <c r="E9" s="86"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="24" t="s">
@@ -5312,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E36BA3-36FB-44D3-AD7F-6767E0A98A6E}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5346,25 +5349,25 @@
       <c r="A2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="23">
-        <f>AVERAGE(B11, B19, B27,B35,B43,H11,H19,H27,H35,H43)</f>
-        <v>1.6706800000000002</v>
-      </c>
-      <c r="C2" s="23">
-        <f>AVERAGE(C11, C19, C27,C35,C43,I11,I19,I27,I35,I43)</f>
+      <c r="B2" s="87">
+        <f>ROUND(AVERAGE(B11, B19, B27,B35,B43,H11,H19,H27,H35,H43),4)</f>
+        <v>1.6707000000000001</v>
+      </c>
+      <c r="C2" s="87">
+        <f>ROUND(AVERAGE(C11, C19, C27,C35,C43,I11,I19,I27,I35,I43),4)</f>
         <v>1.5059</v>
       </c>
-      <c r="D2" s="23">
-        <f>AVERAGE(D11, D19, D27,D35,D43,J11,J19,J27,J35,J43)</f>
-        <v>1.55247</v>
+      <c r="D2" s="87">
+        <f>ROUND(AVERAGE(D11, D19, D27,D35,D43,J11,J19,J27,J35,J43),4)</f>
+        <v>1.5525</v>
       </c>
       <c r="E2" s="37">
-        <f>AVERAGE(E11, E19, E27,E35,E43,K11,K19,K27,K35,K43)</f>
-        <v>1.5823400000000001</v>
+        <f>ROUND(AVERAGE(E11, E19, E27,E35,E43,K11,K19,K27,K35,K43),4)</f>
+        <v>1.5823</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(B2:E2)</f>
-        <v>1.5778475000000003</v>
+        <f>ROUND(AVERAGE(B2:E2),4)</f>
+        <v>1.5779000000000001</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -5376,25 +5379,25 @@
       <c r="A3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="23">
-        <f>AVERAGE(B12, B20, B28,B36,B44,H12,H20,H28,H36,H44)</f>
-        <v>1.6707100000000001</v>
-      </c>
-      <c r="C3" s="23">
-        <f>AVERAGE(C12, C20, C28,C36,C44,I12,I20,I28,I36,I44)</f>
-        <v>1.5008500000000002</v>
-      </c>
-      <c r="D3" s="23">
-        <f>AVERAGE(D12, D20, D28,D36,D44,J12,J20,J28,J36,J44)</f>
-        <v>1.54911</v>
+      <c r="B3" s="87">
+        <f>ROUND(AVERAGE(B12, B20, B28,B36,B44,H12,H20,H28,H36,H44),4)</f>
+        <v>1.6707000000000001</v>
+      </c>
+      <c r="C3" s="87">
+        <f>ROUND(AVERAGE(C12, C20, C28,C36,C44,I12,I20,I28,I36,I44),4)</f>
+        <v>1.5008999999999999</v>
+      </c>
+      <c r="D3" s="87">
+        <f>ROUND(AVERAGE(D12, D20, D28,D36,D44,J12,J20,J28,J36,J44),4)</f>
+        <v>1.5490999999999999</v>
       </c>
       <c r="E3" s="37">
-        <f>AVERAGE(E12, E20, E28,E36,E44,K12,K20,K28,K36,K44)</f>
-        <v>1.5811699999999997</v>
+        <f>ROUND(AVERAGE(E12, E20, E28,E36,E44,K12,K20,K28,K36,K44),4)</f>
+        <v>1.5811999999999999</v>
       </c>
       <c r="F3">
-        <f>AVERAGE(B3:E3)</f>
-        <v>1.5754600000000001</v>
+        <f>ROUND(AVERAGE(B3:E3),4)</f>
+        <v>1.5754999999999999</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -5405,25 +5408,25 @@
       <c r="A4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="23">
-        <f>AVERAGE(B13, B21, B29,B37,B45,H13,H21,H29,H37,H45)</f>
-        <v>1.6493499999999996</v>
-      </c>
-      <c r="C4" s="23">
-        <f>AVERAGE(C13, C21, C29,C37,C45,I13,I21,I29,I37,I45)</f>
-        <v>1.5038100000000001</v>
-      </c>
-      <c r="D4" s="23">
-        <f>AVERAGE(D13, D21, D29,D37,D45,J13,J21,J29,J37,J45)</f>
-        <v>1.5522800000000001</v>
+      <c r="B4" s="87">
+        <f>ROUND(AVERAGE(B13, B21, B29,B37,B45,H13,H21,H29,H37,H45),4)</f>
+        <v>1.6494</v>
+      </c>
+      <c r="C4" s="87">
+        <f>ROUND(AVERAGE(C13, C21, C29,C37,C45,I13,I21,I29,I37,I45),4)</f>
+        <v>1.5038</v>
+      </c>
+      <c r="D4" s="87">
+        <f>ROUND(AVERAGE(D13, D21, D29,D37,D45,J13,J21,J29,J37,J45),4)</f>
+        <v>1.5523</v>
       </c>
       <c r="E4" s="37">
-        <f>AVERAGE(E13, E21, E29,E37,E45,K13,K21,K29,K37,K45)</f>
-        <v>1.5732900000000001</v>
+        <f>ROUND(AVERAGE(E13, E21, E29,E37,E45,K13,K21,K29,K37,K45),4)</f>
+        <v>1.5732999999999999</v>
       </c>
       <c r="F4">
-        <f>AVERAGE(B4:E4)</f>
-        <v>1.5696824999999999</v>
+        <f>ROUND(AVERAGE(B4:E4),4)</f>
+        <v>1.5697000000000001</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -5434,25 +5437,25 @@
       <c r="A5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="23">
-        <f>AVERAGE(B14, B22, B30,B38,B46,H14,H22,H30,H38,H46)</f>
-        <v>1.6477700000000002</v>
-      </c>
-      <c r="C5" s="23">
-        <f>AVERAGE(C14, C22, C30,C38,C46,I14,I22,I30,I38,I46)</f>
-        <v>1.50274</v>
-      </c>
-      <c r="D5" s="23">
-        <f>AVERAGE(D14, D22, D30,D38,D46,J14,J22,J30,J38,J46)</f>
-        <v>1.55121</v>
+      <c r="B5" s="87">
+        <f>ROUND(AVERAGE(B14, B22, B30,B38,B46,H14,H22,H30,H38,H46),4)</f>
+        <v>1.6477999999999999</v>
+      </c>
+      <c r="C5" s="87">
+        <f>ROUND(AVERAGE(C14, C22, C30,C38,C46,I14,I22,I30,I38,I46),4)</f>
+        <v>1.5026999999999999</v>
+      </c>
+      <c r="D5" s="87">
+        <f>ROUND(AVERAGE(D14, D22, D30,D38,D46,J14,J22,J30,J38,J46),4)</f>
+        <v>1.5511999999999999</v>
       </c>
       <c r="E5" s="37">
-        <f>AVERAGE(E14, E22, E30,E38,E46,K14,K22,K30,K38,K46)</f>
-        <v>1.5726899999999999</v>
+        <f>ROUND(AVERAGE(E14, E22, E30,E38,E46,K14,K22,K30,K38,K46),4)</f>
+        <v>1.5727</v>
       </c>
       <c r="F5">
-        <f>AVERAGE(B5:E5)</f>
-        <v>1.5686024999999999</v>
+        <f>ROUND(AVERAGE(B5:E5),4)</f>
+        <v>1.5686</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
@@ -5463,25 +5466,25 @@
       <c r="A6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="23">
-        <f>AVERAGE(B15, B23, B31,B39,B47,H15,H23,H31,H39,H47)</f>
-        <v>1.6722300000000001</v>
-      </c>
-      <c r="C6" s="23">
-        <f>AVERAGE(C15, C23, C31,C39,C47,I15,I23,I31,I39,I47)</f>
-        <v>1.5038999999999998</v>
-      </c>
-      <c r="D6" s="23">
-        <f>AVERAGE(D15, D23, D31,D39,D47,J15,J23,J31,J39,J47)</f>
-        <v>1.5523899999999997</v>
+      <c r="B6" s="87">
+        <f>ROUND(AVERAGE(B15, B23, B31,B39,B47,H15,H23,H31,H39,H47),4)</f>
+        <v>1.6721999999999999</v>
+      </c>
+      <c r="C6" s="87">
+        <f>ROUND(AVERAGE(C15, C23, C31,C39,C47,I15,I23,I31,I39,I47),4)</f>
+        <v>1.5039</v>
+      </c>
+      <c r="D6" s="87">
+        <f>ROUND(AVERAGE(D15, D23, D31,D39,D47,J15,J23,J31,J39,J47),4)</f>
+        <v>1.5524</v>
       </c>
       <c r="E6" s="37">
-        <f>AVERAGE(E15, E23, E31,E39,E47,K15,K23,K31,K39,K47)</f>
-        <v>1.5790900000000003</v>
+        <f>ROUND(AVERAGE(E15, E23, E31,E39,E47,K15,K23,K31,K39,K47),4)</f>
+        <v>1.5790999999999999</v>
       </c>
       <c r="F6">
-        <f>AVERAGE(B6:E6)</f>
-        <v>1.5769025000000001</v>
+        <f>ROUND(AVERAGE(B6:E6),4)</f>
+        <v>1.5769</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -5493,24 +5496,24 @@
         <v>90</v>
       </c>
       <c r="B7" s="38">
-        <f>AVERAGE(B16, B24, B32,B40,B48,H16,H24,H32,H40,H48)</f>
-        <v>1.6413500000000003</v>
+        <f>ROUND(AVERAGE(B16, B24, B32,B40,B48,H16,H24,H32,H40,H48),4)</f>
+        <v>1.6414</v>
       </c>
       <c r="C7" s="38">
-        <f>AVERAGE(C16, C24, C32,C40,C48,I16,I24,I32,I40,I48)</f>
-        <v>1.5006200000000001</v>
+        <f>ROUND(AVERAGE(C16, C24, C32,C40,C48,I16,I24,I32,I40,I48),4)</f>
+        <v>1.5005999999999999</v>
       </c>
       <c r="D7" s="38">
-        <f>AVERAGE(D16, D24, D32,D40,D48,J16,J24,J32,J40,J48)</f>
-        <v>1.5478600000000002</v>
+        <f>ROUND(AVERAGE(D16, D24, D32,D40,D48,J16,J24,J32,J40,J48),4)</f>
+        <v>1.5479000000000001</v>
       </c>
       <c r="E7" s="39">
-        <f>AVERAGE(E16, E24, E32,E40,E48,K16,K24,K32,K40,K48)</f>
-        <v>1.57443</v>
+        <f>ROUND(AVERAGE(E16, E24, E32,E40,E48,K16,K24,K32,K40,K48),4)</f>
+        <v>1.5744</v>
       </c>
       <c r="F7" s="4">
-        <f>AVERAGE(B7:E7)</f>
-        <v>1.566065</v>
+        <f>ROUND(AVERAGE(B7:E7),4)</f>
+        <v>1.5661</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
@@ -5520,20 +5523,20 @@
     <row r="8" spans="1:13">
       <c r="A8" s="16"/>
       <c r="B8">
-        <f>AVERAGE(B2:B7)</f>
-        <v>1.6586816666666671</v>
+        <f>ROUND(AVERAGE(B2:B7),4)</f>
+        <v>1.6587000000000001</v>
       </c>
       <c r="C8">
-        <f>AVERAGE(C2:C7)</f>
-        <v>1.5029700000000001</v>
+        <f>ROUND(AVERAGE(C2:C7),4)</f>
+        <v>1.5029999999999999</v>
       </c>
       <c r="D8">
-        <f>AVERAGE(D2:D7)</f>
-        <v>1.5508866666666667</v>
+        <f>ROUND(AVERAGE(D2:D7),4)</f>
+        <v>1.5508999999999999</v>
       </c>
       <c r="E8" s="16">
-        <f>AVERAGE(E2:E7)</f>
-        <v>1.5771683333333331</v>
+        <f>ROUND(AVERAGE(E2:E7),4)</f>
+        <v>1.5771999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13">

--- a/Details.xlsx
+++ b/Details.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26809"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5272" documentId="7_{7F2EE577-6552-4DB7-94F7-C16FD42A681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80523B23-6026-461F-AF21-C2550F2293E5}"/>
+  <xr:revisionPtr revIDLastSave="5326" documentId="7_{7F2EE577-6552-4DB7-94F7-C16FD42A681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95DDC2B-ED42-42C3-BE0E-312E737101DE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Length of measurements" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="187">
   <si>
     <t>DreamMachine (DM)</t>
   </si>
@@ -179,9 +182,6 @@
     <t>58, 68, 184</t>
   </si>
   <si>
-    <t>164, 165, 168</t>
-  </si>
-  <si>
     <t>1, 2</t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>163, 167</t>
   </si>
   <si>
-    <t>6, 7</t>
+    <t>Trials were a screenshot was taken and incorporated in the thesis</t>
   </si>
   <si>
     <t>Freqency band</t>
@@ -579,6 +579,15 @@
   </si>
   <si>
     <t>[3; 107; 108; 147; 165; 170; 183; 186]</t>
+  </si>
+  <si>
+    <t>Outlier trial AND artifact</t>
+  </si>
+  <si>
+    <t>Outlier trial AND no artifact (at least one trial)</t>
+  </si>
+  <si>
+    <t>Amount of trials</t>
   </si>
   <si>
     <t xml:space="preserve">Standard dev
@@ -598,7 +607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,13 +646,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF70AD47"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -720,7 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1044,9 +1046,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,7 +1086,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1110,7 +1111,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1157,8 +1157,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1504,24 +1516,24 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="26"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="78" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="80" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="26" t="s">
@@ -1551,7 +1563,7 @@
       <c r="I2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="45" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="22" t="s">
@@ -1596,7 +1608,7 @@
       <c r="I3">
         <v>161.30000000000001</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <f>E3-I3</f>
         <v>6.8999999999999773</v>
       </c>
@@ -1608,7 +1620,7 @@
         <f>K3+1499999</f>
         <v>1501724</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="47" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1644,7 +1656,7 @@
       <c r="I4">
         <v>101.1</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="46">
         <f>E4-I4</f>
         <v>4.4000000000000057</v>
       </c>
@@ -1692,7 +1704,7 @@
       <c r="I5">
         <v>46.8</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="46">
         <f>E5-I5</f>
         <v>5.6000000000000014</v>
       </c>
@@ -1740,7 +1752,7 @@
       <c r="I6">
         <v>70</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="46">
         <f>E6-I6</f>
         <v>6</v>
       </c>
@@ -1788,7 +1800,7 @@
       <c r="I7">
         <v>69.5</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="46">
         <f>E7-I7</f>
         <v>5.7999999999999972</v>
       </c>
@@ -1836,7 +1848,7 @@
       <c r="I8">
         <v>69.3</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="46">
         <f>E8-I8</f>
         <v>5.2999999999999972</v>
       </c>
@@ -1884,7 +1896,7 @@
       <c r="I9">
         <v>58</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="46">
         <f>E9-I9</f>
         <v>6</v>
       </c>
@@ -1902,7 +1914,7 @@
       <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B10">
@@ -1933,7 +1945,7 @@
       <c r="I10">
         <v>125.4</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="46">
         <f>E10-I10</f>
         <v>6.5999999999999943</v>
       </c>
@@ -1982,7 +1994,7 @@
       <c r="I11">
         <v>73</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="46">
         <f>E11-I11</f>
         <v>6.0999999999999943</v>
       </c>
@@ -2031,7 +2043,7 @@
       <c r="I12">
         <v>41</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="46">
         <f>E12-I12</f>
         <v>7.1000000000000014</v>
       </c>
@@ -2332,10 +2344,10 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="D15" s="59"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="D16" s="59"/>
+      <c r="D16" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2346,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC027AA-0182-44BF-AA72-0B1B6822AD17}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2362,13 +2374,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="16"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8">
@@ -2410,10 +2422,10 @@
       <c r="E3" s="18">
         <v>84</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="49">
         <v>137</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="52">
         <v>16</v>
       </c>
       <c r="H3" s="7"/>
@@ -2425,10 +2437,10 @@
       <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>90</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <v>90</v>
       </c>
       <c r="E4" s="18">
@@ -2437,7 +2449,7 @@
       <c r="F4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="52">
         <v>70</v>
       </c>
       <c r="H4" s="7"/>
@@ -2446,7 +2458,7 @@
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>10</v>
       </c>
       <c r="C5" s="18">
@@ -2461,7 +2473,7 @@
       <c r="F5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="52">
         <v>50</v>
       </c>
       <c r="H5" s="7"/>
@@ -2479,13 +2491,13 @@
       <c r="D6" s="18">
         <v>58</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="49">
         <v>112</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="53">
+      <c r="F6" s="18">
+        <v>168</v>
+      </c>
+      <c r="G6" s="52">
         <v>37</v>
       </c>
       <c r="H6" s="7"/>
@@ -2495,19 +2507,21 @@
         <v>20</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="50">
+        <v>48</v>
+      </c>
+      <c r="C7" s="49">
         <v>92</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>92</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="18">
+        <v>130</v>
+      </c>
       <c r="F7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <v>27</v>
       </c>
       <c r="H7" s="7"/>
@@ -2531,8 +2545,8 @@
       <c r="F8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="53" t="s">
-        <v>50</v>
+      <c r="G8" s="52" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -2555,13 +2569,13 @@
       <c r="F9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <v>46</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="75" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="18">
@@ -2571,7 +2585,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="18">
         <v>124</v>
@@ -2579,7 +2593,7 @@
       <c r="F10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <v>66</v>
       </c>
       <c r="H10" s="7"/>
@@ -2592,7 +2606,7 @@
         <v>117</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="18">
         <v>167</v>
@@ -2603,7 +2617,7 @@
       <c r="F11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="52">
         <v>12</v>
       </c>
       <c r="H11" s="7"/>
@@ -2627,17 +2641,21 @@
       <c r="F12" s="18">
         <v>135</v>
       </c>
-      <c r="G12" s="54" t="s">
-        <v>53</v>
+      <c r="G12" s="53">
+        <v>6</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="5"/>
@@ -2645,14 +2663,15 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2662,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D9EA70-7EDF-4FF9-A8D3-ED0DEC5C9E2C}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2682,25 +2701,25 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="12"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>55</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>12</v>
@@ -2734,248 +2753,248 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="9">
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="82"/>
+      <c r="B4" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="84"/>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="H4" s="10">
         <v>94</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="82"/>
+      <c r="B5" s="14" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="84"/>
-      <c r="B5" s="14" t="s">
-        <v>76</v>
       </c>
       <c r="C5" s="10">
         <v>100</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="F5" s="20">
         <v>122</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="82"/>
+      <c r="B6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="84"/>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="F6" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="10">
         <v>53</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="52" t="s">
+      <c r="K6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="82"/>
+      <c r="B7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="84"/>
-      <c r="B7" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="10">
         <v>196</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="I7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="82"/>
+      <c r="B8" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="C8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="51">
+        <v>141</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="84"/>
-      <c r="B8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="52">
-        <v>141</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="83" t="s">
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="G9" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="H9" s="51" t="s">
         <v>101</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>102</v>
       </c>
       <c r="I9" s="9">
         <v>3</v>
@@ -2983,36 +3002,36 @@
       <c r="J9" s="9">
         <v>46</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="82"/>
+      <c r="B10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="84"/>
-      <c r="B10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="56" t="s">
         <v>105</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>106</v>
       </c>
       <c r="G10" s="10">
         <v>4</v>
       </c>
-      <c r="H10" s="52" t="s">
-        <v>107</v>
+      <c r="H10" s="51" t="s">
+        <v>106</v>
       </c>
       <c r="I10" s="10">
         <v>3</v>
@@ -3020,140 +3039,140 @@
       <c r="J10" s="10">
         <v>46</v>
       </c>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="84"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="10">
         <v>7</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="G11" s="51">
+        <v>163</v>
+      </c>
+      <c r="H11" s="51">
+        <v>112</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="52">
-        <v>163</v>
-      </c>
-      <c r="H11" s="52">
-        <v>112</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="52" t="s">
+      <c r="K11" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="L11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="84"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="10">
         <v>7</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="51">
+        <v>163</v>
+      </c>
+      <c r="H12" s="51">
         <v>112</v>
       </c>
-      <c r="F12" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="52">
-        <v>163</v>
-      </c>
-      <c r="H12" s="52">
-        <v>112</v>
-      </c>
       <c r="I12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12" s="10">
         <v>87</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="51">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="84"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="G13" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="H13" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="J13" s="10">
         <v>46</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="84"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="E14" s="7">
         <v>3</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="57">
         <v>79</v>
       </c>
-      <c r="G14" s="52" t="s">
-        <v>121</v>
+      <c r="G14" s="51" t="s">
+        <v>120</v>
       </c>
       <c r="H14" s="11">
         <v>94</v>
@@ -3168,54 +3187,54 @@
         <v>88</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="51" t="s">
         <v>125</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>126</v>
       </c>
       <c r="G15" s="9">
         <v>4</v>
       </c>
-      <c r="H15" s="52" t="s">
-        <v>127</v>
+      <c r="H15" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="I15" s="10">
         <v>5</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="51">
+        <v>4</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="52">
-        <v>4</v>
-      </c>
-      <c r="L15" s="10" t="s">
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="82"/>
+      <c r="B16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="84"/>
-      <c r="B16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="D16" s="10">
         <v>192</v>
@@ -3223,56 +3242,56 @@
       <c r="E16" s="10">
         <v>3</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="51">
         <v>83</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="52">
+        <v>130</v>
+      </c>
+      <c r="H16" s="51">
         <v>112</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" s="10">
         <v>46</v>
       </c>
-      <c r="K16" s="52" t="s">
-        <v>132</v>
+      <c r="K16" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="84"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="10">
         <v>6</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="51">
+        <v>83</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="51">
+        <v>112</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="F17" s="52">
-        <v>83</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="52">
-        <v>112</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="K17" s="10">
         <v>7</v>
@@ -3282,71 +3301,71 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="84"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="51">
+        <v>112</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="82"/>
+      <c r="B19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="52">
-        <v>112</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="84"/>
-      <c r="B19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="52">
+        <v>113</v>
+      </c>
+      <c r="F19" s="51">
         <v>83</v>
       </c>
-      <c r="G19" s="52" t="s">
-        <v>101</v>
+      <c r="G19" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="J19" s="10">
         <v>46</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="51">
         <v>4</v>
       </c>
       <c r="L19" s="10">
@@ -3354,27 +3373,27 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="85"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="11">
         <v>192</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>116</v>
+        <v>139</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>115</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="11">
         <v>6</v>
@@ -3386,68 +3405,68 @@
         <v>88</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>141</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>142</v>
       </c>
       <c r="E21" s="10">
         <v>131</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="52">
+      <c r="H21" s="51">
         <v>112</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="52">
+        <v>117</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="51">
         <v>4</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="84"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="10">
         <v>3</v>
       </c>
-      <c r="F22" s="52" t="s">
-        <v>145</v>
+      <c r="F22" s="51" t="s">
+        <v>144</v>
       </c>
       <c r="G22" s="10">
         <v>4</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="51">
         <v>112</v>
       </c>
       <c r="I22" s="10">
@@ -3456,128 +3475,128 @@
       <c r="J22" s="10">
         <v>46</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="51">
         <v>4</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="82"/>
+      <c r="B23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="84"/>
-      <c r="B23" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="51" t="s">
         <v>147</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>148</v>
       </c>
       <c r="G23" s="10">
         <v>4</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="51">
         <v>112</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>149</v>
+        <v>60</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="K23" s="10">
         <v>8</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="84"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="10">
         <v>7</v>
       </c>
-      <c r="F24" s="52" t="s">
-        <v>151</v>
+      <c r="F24" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="52">
+        <v>60</v>
+      </c>
+      <c r="H24" s="51">
         <v>112</v>
       </c>
       <c r="I24" s="10">
         <v>6</v>
       </c>
-      <c r="J24" s="52" t="s">
-        <v>152</v>
+      <c r="J24" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="K24" s="10">
         <v>8</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="84"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="10">
         <v>3</v>
       </c>
-      <c r="F25" s="52" t="s">
-        <v>153</v>
+      <c r="F25" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="G25" s="10">
         <v>4</v>
       </c>
       <c r="H25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="J25" s="10">
         <v>46</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="51">
         <v>4</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="85"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="10">
         <v>192</v>
@@ -3585,14 +3604,14 @@
       <c r="E26" s="10">
         <v>3</v>
       </c>
-      <c r="F26" s="52" t="s">
-        <v>154</v>
+      <c r="F26" s="51" t="s">
+        <v>153</v>
       </c>
       <c r="G26" s="10">
         <v>4</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" s="10">
         <v>6</v>
@@ -3601,143 +3620,155 @@
         <v>46</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L26" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="45.75">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64" t="s">
+      <c r="D27" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="E27" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="F27" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="G27" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="65" t="s">
+      <c r="H27" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="I27" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="65" t="s">
+      <c r="J27" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="K27" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="68" t="s">
+      <c r="L27" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="L27" s="67" t="s">
+      <c r="M27" s="85">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30.75">
+      <c r="A28" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="M27" s="69">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30.75">
-      <c r="A28" s="61" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="66">
+        <v>161</v>
+      </c>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="67">
-        <v>161</v>
-      </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71" t="s">
+      <c r="G28" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="H28" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="I28" s="71">
+        <v>151</v>
+      </c>
+      <c r="J28" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="I28" s="73">
-        <v>151</v>
-      </c>
-      <c r="J28" s="67" t="s">
+      <c r="K28" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="L28" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="L28" s="72" t="s">
+      <c r="M28" s="85">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45.75">
+      <c r="A29" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="M28" s="69">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="45.75">
-      <c r="A29" s="61" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="75" t="s">
+      <c r="E29" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="75" t="s">
+      <c r="G29" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="H29" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="74" t="s">
+      <c r="I29" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="74" t="s">
+      <c r="J29" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="74" t="s">
+      <c r="K29" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="K29" s="74" t="s">
+      <c r="L29" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="L29" s="74" t="s">
+      <c r="M29" s="85">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="M29" s="69">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
@@ -3753,7 +3784,7 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3772,38 +3803,38 @@
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="5"/>
       <c r="O1" s="40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P1" s="41">
         <f>MIN(B11:E16,I11:L16,B19:E24,I19:L24,B27:E32,I27:L32,B35:E40,I35:L40,B43:E48,I43:L48)</f>
@@ -3812,7 +3843,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="23">
         <f>ROUND(AVERAGE(B11, B19, B27,B35,B43,H11,H19,H27,H35,H43),4)</f>
@@ -3835,7 +3866,7 @@
         <v>0.99750000000000005</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <f>ROUND(STDEV(B11, B19, B27,B35,B43,I11,I19,I27,I35,I43),4)</f>
@@ -3859,16 +3890,16 @@
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="P2" s="43">
+        <v>186</v>
+      </c>
+      <c r="P2" s="84">
         <f>MAX(B11:E16,I11:L16,B19:E24,I19:L24,B27:E32,I27:L32,B35:E40,I35:L40,B43:E48,I43:L48)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="23">
         <f>ROUND(AVERAGE(B12, B20, B28,B36,B44,H12,H20,H28,H36,H44),4)</f>
@@ -3891,7 +3922,7 @@
         <v>0.99690000000000001</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3">
         <f>ROUND(STDEV(B12, B20, B28,B36,B44,I12,I20,I28,I36,I44),4)</f>
@@ -3917,7 +3948,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="23">
         <f>ROUND(AVERAGE(B13, B21, B29,B37,B45,H13,H21,H29,H37,H45),4)</f>
@@ -3940,7 +3971,7 @@
         <v>0.99680000000000002</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <f>ROUND(STDEV(B13, B21, B29,B37,B45,I13,I21,I29,I37,I45),4)</f>
@@ -3965,7 +3996,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="23">
         <f>ROUND(AVERAGE(B14, B22, B30,B38,B46,H14,H22,H30,H38,H46),4)</f>
@@ -3988,7 +4019,7 @@
         <v>0.99309999999999998</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <f>ROUND(STDEV(B14, B22, B30,B38,B46,I14,I22,I30,I38,I46),4)</f>
@@ -4013,7 +4044,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="23">
         <f>ROUND(AVERAGE(B15, B23, B31,B39,B47,H15,H23,H31,H39,H47),4)</f>
@@ -4036,7 +4067,7 @@
         <v>0.99850000000000005</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <f>ROUND(STDEV(B15, B23, B31,B39,B47,I15,I23,I31,I39,I47),4)</f>
@@ -4061,7 +4092,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="38">
         <f>ROUND(AVERAGE(B16, B24, B32,B40,B48,H16,H24,H32,H40,H48),4)</f>
@@ -4084,7 +4115,7 @@
         <v>0.99860000000000004</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="4">
         <f>ROUND(STDEV(B16, B24, B32,B40,B48,I16,I24,I32,I40,I48),4)</f>
@@ -4143,48 +4174,45 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="E9" s="86"/>
-    </row>
     <row r="10" spans="1:16">
       <c r="A10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="44"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="44"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0.99939999999999996</v>
@@ -4199,9 +4227,9 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="76"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11">
         <v>0.99029999999999996</v>
@@ -4216,11 +4244,11 @@
         <v>0.93420000000000003</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="76"/>
+      <c r="N11" s="74"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>0.99970000000000003</v>
@@ -4235,7 +4263,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12">
         <v>0.99850000000000005</v>
@@ -4252,7 +4280,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0.99960000000000004</v>
@@ -4267,7 +4295,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>0.99929999999999997</v>
@@ -4284,7 +4312,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>0.99970000000000003</v>
@@ -4299,7 +4327,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14">
         <v>0.99860000000000004</v>
@@ -4316,7 +4344,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>0.99960000000000004</v>
@@ -4331,7 +4359,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15">
         <v>0.999</v>
@@ -4348,7 +4376,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>0.99960000000000004</v>
@@ -4363,7 +4391,7 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16">
         <v>0.99960000000000004</v>
@@ -4383,40 +4411,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="44"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0.99880000000000002</v>
@@ -4431,28 +4459,28 @@
         <v>0.99560000000000004</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="76"/>
+      <c r="G19" s="74"/>
       <c r="H19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="45">
+        <v>56</v>
+      </c>
+      <c r="I19" s="44">
         <v>0.99980000000000002</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <v>0.99919999999999998</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="44">
         <v>0.99690000000000001</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="44">
         <v>0.99760000000000004</v>
       </c>
       <c r="M19" s="5"/>
-      <c r="N19" s="76"/>
+      <c r="N19" s="74"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>0.99990000000000001</v>
@@ -4467,24 +4495,24 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="45">
+        <v>65</v>
+      </c>
+      <c r="I20" s="44">
         <v>0.99939999999999996</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="44">
         <v>0.99939999999999996</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="44">
         <v>0.998</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="44">
         <v>0.99770000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>0.95169999999999999</v>
@@ -4499,26 +4527,26 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="45">
+        <v>75</v>
+      </c>
+      <c r="I21" s="44">
         <v>0.99970000000000003</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <v>0.99880000000000002</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="44">
         <v>0.99970000000000003</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="44">
         <v>0.99580000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="44">
+        <v>80</v>
+      </c>
+      <c r="B22" s="43">
         <v>0.87570000000000003</v>
       </c>
       <c r="C22">
@@ -4531,24 +4559,24 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="45">
+        <v>80</v>
+      </c>
+      <c r="I22" s="44">
         <v>0.99970000000000003</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="44">
         <v>0.99780000000000002</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="44">
         <v>0.99970000000000003</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="44">
         <v>0.99639999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0.99760000000000004</v>
@@ -4563,24 +4591,24 @@
         <v>0.99129999999999996</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="45">
+        <v>85</v>
+      </c>
+      <c r="I23" s="44">
         <v>0.99990000000000001</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <v>0.99939999999999996</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="44">
         <v>0.99750000000000005</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="44">
         <v>0.99739999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <v>0.99770000000000003</v>
@@ -4595,18 +4623,18 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="45">
+        <v>89</v>
+      </c>
+      <c r="I24" s="44">
         <v>0.99990000000000001</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <v>0.99960000000000004</v>
       </c>
-      <c r="K24" s="45">
+      <c r="K24" s="44">
         <v>0.99870000000000003</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="44">
         <v>0.99850000000000005</v>
       </c>
     </row>
@@ -4615,40 +4643,40 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="44"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="30" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="44"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>0.99950000000000006</v>
@@ -4663,9 +4691,9 @@
         <v>0.995</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="76"/>
+      <c r="G27" s="74"/>
       <c r="H27" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27">
         <v>0.99670000000000003</v>
@@ -4680,11 +4708,11 @@
         <v>0.99080000000000001</v>
       </c>
       <c r="M27" s="5"/>
-      <c r="N27" s="76"/>
+      <c r="N27" s="74"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0.99639999999999995</v>
@@ -4699,7 +4727,7 @@
         <v>0.99839999999999995</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28">
         <v>0.998</v>
@@ -4716,7 +4744,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>0.99980000000000002</v>
@@ -4731,7 +4759,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I29">
         <v>0.99670000000000003</v>
@@ -4748,7 +4776,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>0.99980000000000002</v>
@@ -4763,7 +4791,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30">
         <v>0.99399999999999999</v>
@@ -4780,7 +4808,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>0.99970000000000003</v>
@@ -4795,7 +4823,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31">
         <v>0.99709999999999999</v>
@@ -4812,7 +4840,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>0.99970000000000003</v>
@@ -4827,7 +4855,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32">
         <v>0.99139999999999995</v>
@@ -4847,40 +4875,40 @@
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="44"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M34" s="5"/>
-      <c r="N34" s="44"/>
+      <c r="N34" s="43"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>0.99970000000000003</v>
@@ -4895,9 +4923,9 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I35">
         <v>0.99609999999999999</v>
@@ -4912,11 +4940,11 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="M35" s="5"/>
-      <c r="N35" s="76"/>
+      <c r="N35" s="74"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>0.99829999999999997</v>
@@ -4931,7 +4959,7 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36">
         <v>0.99870000000000003</v>
@@ -4948,7 +4976,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>0.99970000000000003</v>
@@ -4963,7 +4991,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I37">
         <v>0.99929999999999997</v>
@@ -4980,7 +5008,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>0.99960000000000004</v>
@@ -4995,7 +5023,7 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38">
         <v>0.99919999999999998</v>
@@ -5012,7 +5040,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>0.99980000000000002</v>
@@ -5027,7 +5055,7 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39">
         <v>0.99729999999999996</v>
@@ -5044,7 +5072,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>0.99870000000000003</v>
@@ -5059,7 +5087,7 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I40">
         <v>0.99450000000000005</v>
@@ -5079,40 +5107,40 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="44"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="30" t="s">
         <v>29</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M42" s="5"/>
-      <c r="N42" s="44"/>
+      <c r="N42" s="43"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>0.9919</v>
@@ -5127,9 +5155,9 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="76"/>
+      <c r="G43" s="74"/>
       <c r="H43" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I43">
         <v>0.99639999999999995</v>
@@ -5144,11 +5172,11 @@
         <v>0.99519999999999997</v>
       </c>
       <c r="M43" s="5"/>
-      <c r="N43" s="76"/>
+      <c r="N43" s="74"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>0.99550000000000005</v>
@@ -5163,7 +5191,7 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I44">
         <v>0.996</v>
@@ -5180,7 +5208,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45">
         <v>0.99739999999999995</v>
@@ -5195,7 +5223,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I45">
         <v>0.998</v>
@@ -5212,7 +5240,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>0.99770000000000003</v>
@@ -5227,7 +5255,7 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46">
         <v>0.99729999999999996</v>
@@ -5244,7 +5272,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>0.997</v>
@@ -5259,7 +5287,7 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47">
         <v>0.99680000000000002</v>
@@ -5276,7 +5304,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>0.99680000000000002</v>
@@ -5291,7 +5319,7 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I48">
         <v>0.9919</v>
@@ -5315,8 +5343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E36BA3-36FB-44D3-AD7F-6767E0A98A6E}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E2:E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5330,34 +5358,41 @@
         <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="M1" s="44"/>
+      <c r="H1" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="41">
+        <f>MIN(B11:E16,H11:K16,B19:E24,H19:K24,B27:E32,H27:K32,B35:E40,H35:K40,B43:E48,H43:K48)</f>
+        <v>1.4943</v>
+      </c>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="87">
+        <v>56</v>
+      </c>
+      <c r="B2" s="23">
         <f>ROUND(AVERAGE(B11, B19, B27,B35,B43,H11,H19,H27,H35,H43),4)</f>
         <v>1.6707000000000001</v>
       </c>
-      <c r="C2" s="87">
+      <c r="C2" s="23">
         <f>ROUND(AVERAGE(C11, C19, C27,C35,C43,I11,I19,I27,I35,I43),4)</f>
         <v>1.5059</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D2" s="23">
         <f>ROUND(AVERAGE(D11, D19, D27,D35,D43,J11,J19,J27,J35,J43),4)</f>
         <v>1.5525</v>
       </c>
@@ -5369,25 +5404,30 @@
         <f>ROUND(AVERAGE(B2:E2),4)</f>
         <v>1.5779000000000001</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="H2" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="84">
+        <f>MAX(B11:E16,H11:K16,B19:E24,H19:K24,B27:E32,H27:K32,B35:E40,H35:K40,B43:E48,H43:K48)</f>
+        <v>2.0064000000000002</v>
+      </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="M2" s="60"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="87">
+        <v>65</v>
+      </c>
+      <c r="B3" s="23">
         <f>ROUND(AVERAGE(B12, B20, B28,B36,B44,H12,H20,H28,H36,H44),4)</f>
         <v>1.6707000000000001</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="23">
         <f>ROUND(AVERAGE(C12, C20, C28,C36,C44,I12,I20,I28,I36,I44),4)</f>
         <v>1.5008999999999999</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="23">
         <f>ROUND(AVERAGE(D12, D20, D28,D36,D44,J12,J20,J28,J36,J44),4)</f>
         <v>1.5490999999999999</v>
       </c>
@@ -5406,17 +5446,17 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="87">
+        <v>75</v>
+      </c>
+      <c r="B4" s="23">
         <f>ROUND(AVERAGE(B13, B21, B29,B37,B45,H13,H21,H29,H37,H45),4)</f>
         <v>1.6494</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="23">
         <f>ROUND(AVERAGE(C13, C21, C29,C37,C45,I13,I21,I29,I37,I45),4)</f>
         <v>1.5038</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="23">
         <f>ROUND(AVERAGE(D13, D21, D29,D37,D45,J13,J21,J29,J37,J45),4)</f>
         <v>1.5523</v>
       </c>
@@ -5435,17 +5475,17 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="87">
+        <v>80</v>
+      </c>
+      <c r="B5" s="23">
         <f>ROUND(AVERAGE(B14, B22, B30,B38,B46,H14,H22,H30,H38,H46),4)</f>
         <v>1.6477999999999999</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="23">
         <f>ROUND(AVERAGE(C14, C22, C30,C38,C46,I14,I22,I30,I38,I46),4)</f>
         <v>1.5026999999999999</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="23">
         <f>ROUND(AVERAGE(D14, D22, D30,D38,D46,J14,J22,J30,J38,J46),4)</f>
         <v>1.5511999999999999</v>
       </c>
@@ -5464,17 +5504,17 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="87">
+        <v>85</v>
+      </c>
+      <c r="B6" s="23">
         <f>ROUND(AVERAGE(B15, B23, B31,B39,B47,H15,H23,H31,H39,H47),4)</f>
         <v>1.6721999999999999</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="23">
         <f>ROUND(AVERAGE(C15, C23, C31,C39,C47,I15,I23,I31,I39,I47),4)</f>
         <v>1.5039</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="23">
         <f>ROUND(AVERAGE(D15, D23, D31,D39,D47,J15,J23,J31,J39,J47),4)</f>
         <v>1.5524</v>
       </c>
@@ -5493,7 +5533,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="38">
         <f>ROUND(AVERAGE(B16, B24, B32,B40,B48,H16,H24,H32,H40,H48),4)</f>
@@ -5544,36 +5584,36 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>1.6356999999999999</v>
@@ -5588,7 +5628,7 @@
         <v>1.5903</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <v>1.6022000000000001</v>
@@ -5605,7 +5645,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12">
         <v>1.6356999999999999</v>
@@ -5620,7 +5660,7 @@
         <v>1.5886</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12">
         <v>1.6016999999999999</v>
@@ -5637,7 +5677,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>1.6553</v>
@@ -5652,7 +5692,7 @@
         <v>1.5788</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13">
         <v>1.6356999999999999</v>
@@ -5669,7 +5709,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>1.6519999999999999</v>
@@ -5684,7 +5724,7 @@
         <v>1.5778000000000001</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>1.6322000000000001</v>
@@ -5701,7 +5741,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>1.6554</v>
@@ -5716,7 +5756,7 @@
         <v>1.5873999999999999</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15">
         <v>1.6277999999999999</v>
@@ -5733,7 +5773,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>1.6303000000000001</v>
@@ -5748,7 +5788,7 @@
         <v>1.5838000000000001</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16">
         <v>1.6155999999999999</v>
@@ -5768,38 +5808,38 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="60">
+        <v>56</v>
+      </c>
+      <c r="B19" s="59">
         <v>2.0064000000000002</v>
       </c>
       <c r="C19">
@@ -5812,7 +5852,7 @@
         <v>1.5931</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19">
         <v>1.6347</v>
@@ -5829,7 +5869,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>1.7433000000000001</v>
@@ -5844,7 +5884,7 @@
         <v>1.599</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20">
         <v>1.6313</v>
@@ -5861,7 +5901,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>1.6107</v>
@@ -5876,7 +5916,7 @@
         <v>1.5647</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21">
         <v>1.6613</v>
@@ -5893,7 +5933,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>1.5953999999999999</v>
@@ -5908,7 +5948,7 @@
         <v>1.5629</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22">
         <v>1.6705000000000001</v>
@@ -5925,7 +5965,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>1.8238000000000001</v>
@@ -5940,7 +5980,7 @@
         <v>1.5805</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23">
         <v>1.6431</v>
@@ -5957,7 +5997,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <v>1.7723</v>
@@ -5972,7 +6012,7 @@
         <v>1.5722</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H24">
         <v>1.6408</v>
@@ -5992,36 +6032,36 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>1.6206</v>
@@ -6036,7 +6076,7 @@
         <v>1.5823</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27">
         <v>1.5974999999999999</v>
@@ -6053,7 +6093,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1.6092</v>
@@ -6068,12 +6108,12 @@
         <v>1.5749</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28">
         <v>1.9248000000000001</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="43">
         <v>1.4943</v>
       </c>
       <c r="J28">
@@ -6085,7 +6125,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>1.6375999999999999</v>
@@ -6100,7 +6140,7 @@
         <v>1.5644</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29">
         <v>1.6208</v>
@@ -6117,7 +6157,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30">
         <v>1.6292</v>
@@ -6132,7 +6172,7 @@
         <v>1.5658000000000001</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30">
         <v>1.6160000000000001</v>
@@ -6149,7 +6189,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>1.6086</v>
@@ -6164,7 +6204,7 @@
         <v>1.5774999999999999</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31">
         <v>1.7798</v>
@@ -6181,7 +6221,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>1.6111</v>
@@ -6196,7 +6236,7 @@
         <v>1.5728</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32">
         <v>1.5925</v>
@@ -6216,36 +6256,36 @@
         <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>1.6728000000000001</v>
@@ -6260,7 +6300,7 @@
         <v>1.5623</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35">
         <v>1.6631</v>
@@ -6277,7 +6317,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>1.6640999999999999</v>
@@ -6292,7 +6332,7 @@
         <v>1.5741000000000001</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36">
         <v>1.6372</v>
@@ -6309,7 +6349,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>1.6535</v>
@@ -6324,7 +6364,7 @@
         <v>1.5758000000000001</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37">
         <v>1.6898</v>
@@ -6341,7 +6381,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>1.6687000000000001</v>
@@ -6356,7 +6396,7 @@
         <v>1.5703</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38">
         <v>1.6803999999999999</v>
@@ -6373,7 +6413,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>1.6368</v>
@@ -6388,7 +6428,7 @@
         <v>1.5636000000000001</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H39">
         <v>1.6493</v>
@@ -6405,7 +6445,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>1.6351</v>
@@ -6420,7 +6460,7 @@
         <v>1.5609</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H40">
         <v>1.6393</v>
@@ -6440,36 +6480,36 @@
         <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>29</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>1.607</v>
@@ -6484,7 +6524,7 @@
         <v>1.5883</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H43">
         <v>1.6668000000000001</v>
@@ -6501,7 +6541,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>1.6017999999999999</v>
@@ -6516,7 +6556,7 @@
         <v>1.58</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44">
         <v>1.6579999999999999</v>
@@ -6533,7 +6573,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45">
         <v>1.6612</v>
@@ -6548,7 +6588,7 @@
         <v>1.5762</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H45">
         <v>1.6676</v>
@@ -6565,7 +6605,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>1.6620999999999999</v>
@@ -6580,7 +6620,7 @@
         <v>1.5782</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46">
         <v>1.6712</v>
@@ -6597,7 +6637,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>1.6222000000000001</v>
@@ -6612,7 +6652,7 @@
         <v>1.5855999999999999</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47">
         <v>1.6755</v>
@@ -6629,7 +6669,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>1.6132</v>
@@ -6644,7 +6684,7 @@
         <v>1.5832999999999999</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H48">
         <v>1.6633</v>
